--- a/va_facility_data_2025-02-20/Ozark VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Ozark%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Ozark VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Ozark%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rd2202a0fb6fa41b1992c456e1e625789"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R10b8ae1563b04823b6d0bb49832acef9"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R756839aeade341b8a22cd68624722047"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R0f2c8c6532d84f6886ab7c6c863f3bd6"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2e697a23b9984d8c81ec928193201eef"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R41f1c1ca116d414396feb79cca04167d"/>
   </x:sheets>
 </x:workbook>
 </file>
